--- a/biology/Botanique/Georges_Becker/Georges_Becker.xlsx
+++ b/biology/Botanique/Georges_Becker/Georges_Becker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Georges Becker, né le 7 février 1905 à Belfort et mort le 10 septembre 1994 à Montbéliard, est un mycologue français. Il a été aussi député du Doubs de 1958 à 1967.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d’une famille de commerçants, il fait ses études à Lyon, à la faculté des lettres et au conservatoire. En 1927, il commence une carrière de professeur de l'enseignement secondaire à Mirecourt. Il collaborera aussi au journal L'Est républicain et à la revue de jardinage Rustica.
 En 1934, il est nommé au collège Cuvier à Montbéliard. En 1953, il soutient à l'université de Besançon une thèse intitulée Observations sur l'écologie des champignons supérieurs (publiée en 1956). Il sera président de la Société mycologique de France. Il a découvert l'Amanita Beckeri un champignon baptisé d'après lui.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poésies, Belfort, ?
 Le livre des messages, Montbéliard, Billerey, 1941
